--- a/accounts/acme/acme.xlsx
+++ b/accounts/acme/acme.xlsx
@@ -484,7 +484,7 @@
     <t xml:space="preserve">Giovanni</t>
   </si>
   <si>
-    <t xml:space="preserve">juan22acme1</t>
+    <t xml:space="preserve">juan22acm</t>
   </si>
   <si>
     <t xml:space="preserve">import@acme.com</t>
